--- a/biology/Médecine/Terbutaline/Terbutaline.xlsx
+++ b/biology/Médecine/Terbutaline/Terbutaline.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La terbutaline est un médicament sympathicomimétique agoniste des récepteurs β2-adrénergiques, utilisé comme bronchodilatateur à action rapide et pour retarder l'accouchement prématuré.
@@ -512,7 +524,9 @@
           <t>Propriétés de la molécule</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La terbutaline est une substance cristalline incolore.
 Le sulfate de terbutaline est une poudre cristalline blanche à blanc-grisâtre, soluble à raison de 1 g / 1-5  ml d'eau et 1 g / 250 ml d'éthanol. Sa saveur est amère.
@@ -544,7 +558,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les indications sont :
 traitement symptomatique des crises d'asthme aiguës ;
@@ -578,9 +594,11 @@
           <t>Stéréochimie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La terbutaline contient un stéréocentre et se compose donc de deux énantiomères. Pratiquement c'est le racémique, c'est-à-dire le mélange 1:1 des formes (R) et (S) qui est utilisé[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La terbutaline contient un stéréocentre et se compose donc de deux énantiomères. Pratiquement c'est le racémique, c'est-à-dire le mélange 1:1 des formes (R) et (S) qui est utilisé :
 </t>
         </is>
       </c>
